--- a/excel/zh/MCP-TC23-BondOptionCalculator.xlsx
+++ b/excel/zh/MCP-TC23-BondOptionCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vuepress\help-master3\zh\latest\api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57BC1B0-59DB-4F07-AF38-4BB425AE965D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A9B4B-A87B-47E3-95BB-A1856E67E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{41B06804-743E-4666-8CE3-95EC6565FE5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13890" activeTab="2" xr2:uid="{41B06804-743E-4666-8CE3-95EC6565FE5D}"/>
   </bookViews>
   <sheets>
     <sheet name="FR007 Curve" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="USDCurveMID">[1]设置!$C$9</definedName>
     <definedName name="USDMktVolSurfaceMID">[1]设置!$C$18</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2019,21 +2019,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.000%"/>
-    <numFmt numFmtId="181" formatCode="0.00000%"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2041,7 +2041,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2049,14 +2049,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2064,7 +2064,7 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14996795556505021"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2072,7 +2072,7 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -2081,7 +2081,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2102,7 +2102,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2110,7 +2110,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2119,7 +2119,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2128,7 +2128,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2137,7 +2137,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2146,14 +2146,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF595959"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2358,7 +2358,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,10 +2409,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2427,10 +2427,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,7 +2452,7 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1">
@@ -2467,7 +2467,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1">
@@ -2479,7 +2479,7 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
@@ -2494,7 +2494,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
@@ -2512,19 +2512,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3">
@@ -2545,31 +2545,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2599,14 +2578,35 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{11D95CF1-DBD4-4701-B5BF-0E8D3C47BFE6}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔 2" xfId="5" xr:uid="{BF02FA33-840C-4781-B20B-010EC778CC28}"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{A1FE6915-E9F2-4AD7-974A-80E5E5DDFE79}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{B1164F98-F53B-45D6-8773-7696E9C82CC0}"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="千位分隔 2" xfId="5" xr:uid="{BF02FA33-840C-4781-B20B-010EC778CC28}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{11D95CF1-DBD4-4701-B5BF-0E8D3C47BFE6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enum"/>
@@ -2766,7 +2766,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Calendar"/>
@@ -2912,7 +2912,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BBG-Depo"/>
@@ -2980,7 +2980,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enum"/>
@@ -3062,7 +3062,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enum"/>
@@ -3108,7 +3108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3410,34 +3410,34 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.125" style="1"/>
-    <col min="23" max="23" width="15.875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.125" style="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="25" customFormat="1" ht="23.25">
       <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>631</v>
       </c>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="D5" s="18"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="D6" s="18"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="D7" s="18"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3556,14 +3556,14 @@
       <c r="H8" s="22"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="G9" s="22"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="21" t="s">
         <v>43</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="D10" s="5"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B11" s="18" t="s">
         <v>42</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="D11" s="18"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="D12" s="18"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="D13" s="5"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="18" t="s">
         <v>39</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="D14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
@@ -3627,10 +3627,10 @@
       </c>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" thickTop="1">
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="J17" s="8"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B19" s="18">
         <f>$G$3</f>
         <v>45888</v>
@@ -3694,23 +3694,23 @@
       </c>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" thickTop="1">
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
       <c r="I22" s="3" t="str">
         <f>_xll.McpVanillaSwapCurveData(I25:J39,C25:F36,,,,"VP|HD")</f>
         <v>McpVanillaSwapCurveData@0</v>
       </c>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" thickTop="1">
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="J24" s="8"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
         <v>29</v>
@@ -3746,7 +3746,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="13"/>
       <c r="C26" s="18">
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B27" s="13"/>
       <c r="C27" s="18">
         <v>45982</v>
@@ -3790,7 +3790,7 @@
         <v>McpCalendar@0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B28" s="13"/>
       <c r="C28" s="18">
         <v>46076</v>
@@ -3811,7 +3811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B29" s="13"/>
       <c r="C29" s="18">
         <v>46163</v>
@@ -3832,7 +3832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B30" s="13"/>
       <c r="C30" s="18">
         <v>46255</v>
@@ -3854,7 +3854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B31" s="13"/>
       <c r="C31" s="18">
         <v>46622</v>
@@ -3876,7 +3876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B32" s="13"/>
       <c r="C32" s="18">
         <v>46986</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33" s="13"/>
       <c r="C33" s="18">
         <v>47351</v>
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="18">
         <v>47716</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B35" s="13"/>
       <c r="C35" s="18">
         <v>48449</v>
@@ -3964,7 +3964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B36" s="13"/>
       <c r="C36" s="18">
         <v>49542</v>
@@ -3986,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H39" s="7"/>
       <c r="I39" s="4" t="s">
         <v>5</v>
@@ -4023,14 +4023,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="41" spans="2:10">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10">
       <c r="C43" s="2"/>
     </row>
   </sheetData>
@@ -4059,20 +4059,20 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.125" style="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="61" t="s">
         <v>608</v>
       </c>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>112</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" thickTop="1">
       <c r="A4" s="30" t="s">
         <v>113</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="30" t="s">
         <v>114</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
         <v>115</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="30" t="s">
         <v>116</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="30" t="s">
         <v>117</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="30" t="s">
         <v>118</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="30" t="s">
         <v>119</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
         <v>120</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
         <v>121</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>107.5312</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="30" t="s">
         <v>122</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>107.59350000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="30" t="s">
         <v>123</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>MHistVols@0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" thickTop="1">
       <c r="A15" s="30" t="s">
         <v>124</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>107.4438</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="30" t="s">
         <v>125</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="30" t="s">
         <v>126</v>
       </c>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="30" t="s">
         <v>127</v>
       </c>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="30" t="s">
         <v>128</v>
       </c>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="30" t="s">
         <v>129</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>107.7897</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="30" t="s">
         <v>130</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="E21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="30" t="s">
         <v>131</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="30" t="s">
         <v>132</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="E23" s="31"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
         <v>133</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="30" t="s">
         <v>134</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="30" t="s">
         <v>135</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="E26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="30" t="s">
         <v>136</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="E27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
         <v>137</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="E28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
         <v>138</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="E29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
         <v>139</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="E30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
         <v>140</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="D31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
         <v>141</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="D32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
         <v>142</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="D33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30" t="s">
         <v>143</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="D34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30" t="s">
         <v>144</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="D35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30" t="s">
         <v>145</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="D36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30" t="s">
         <v>146</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="D37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30" t="s">
         <v>147</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="D38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30" t="s">
         <v>148</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="D39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30" t="s">
         <v>149</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="D40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30" t="s">
         <v>150</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30" t="s">
         <v>151</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30" t="s">
         <v>152</v>
       </c>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30" t="s">
         <v>153</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30" t="s">
         <v>154</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30" t="s">
         <v>155</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30" t="s">
         <v>156</v>
       </c>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30" t="s">
         <v>157</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="30" t="s">
         <v>158</v>
       </c>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="30" t="s">
         <v>159</v>
       </c>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
         <v>160</v>
       </c>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="30" t="s">
         <v>161</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="30" t="s">
         <v>162</v>
       </c>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="30" t="s">
         <v>163</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="30" t="s">
         <v>164</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
         <v>165</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
         <v>166</v>
       </c>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
         <v>167</v>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
         <v>168</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="30" t="s">
         <v>169</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="30" t="s">
         <v>170</v>
       </c>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="30" t="s">
         <v>171</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="30" t="s">
         <v>172</v>
       </c>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
         <v>173</v>
       </c>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="30" t="s">
         <v>174</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
         <v>175</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="30" t="s">
         <v>176</v>
       </c>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="30" t="s">
         <v>177</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>108.1853</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="30" t="s">
         <v>178</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>107.9932</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
         <v>179</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>107.9607</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="30" t="s">
         <v>180</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>108.0249</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="30" t="s">
         <v>181</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>108.0277</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="30" t="s">
         <v>182</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>107.96259999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="30" t="s">
         <v>183</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>108.107</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
         <v>184</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>107.8322</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="30" t="s">
         <v>185</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>107.9438</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="30" t="s">
         <v>186</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>108.3254</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="30" t="s">
         <v>187</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>107.81570000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="30" t="s">
         <v>188</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>107.15009999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="30" t="s">
         <v>189</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>106.9791</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="30" t="s">
         <v>190</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>106.9088</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="30" t="s">
         <v>191</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>106.916</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="30" t="s">
         <v>192</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>106.9067</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="30" t="s">
         <v>193</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>106.6069</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="30" t="s">
         <v>194</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>106.5984</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="30" t="s">
         <v>195</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>106.3485</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="30" t="s">
         <v>196</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>106.3284</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="30" t="s">
         <v>197</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>106.4956</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>106.566</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="30" t="s">
         <v>199</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>106.9187</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="30" t="s">
         <v>200</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>107.53489999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="30" t="s">
         <v>201</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>107.6446</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="30" t="s">
         <v>202</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>107.61150000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="30" t="s">
         <v>203</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>107.3644</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="30" t="s">
         <v>204</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>107.44589999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="30" t="s">
         <v>205</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>107.44589999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="30" t="s">
         <v>206</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>107.5557</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="30" t="s">
         <v>207</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>107.78489999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="30" t="s">
         <v>208</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>108.14660000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="30" t="s">
         <v>209</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>108.38420000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="30" t="s">
         <v>210</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>108.62560000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="30" t="s">
         <v>211</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>108.9898</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="30" t="s">
         <v>212</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>108.9438</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="30" t="s">
         <v>213</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>109.0968</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="30" t="s">
         <v>214</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>109.06019999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="30" t="s">
         <v>215</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>108.88039999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="30" t="s">
         <v>216</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>108.58159999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="30" t="s">
         <v>217</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>108.58459999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="30" t="s">
         <v>218</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>108.81019999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="30" t="s">
         <v>219</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>108.8591</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="30" t="s">
         <v>220</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>108.9448</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="30" t="s">
         <v>221</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>108.6904</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="30" t="s">
         <v>222</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>108.7302</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="30" t="s">
         <v>223</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>108.7516</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="30" t="s">
         <v>224</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>108.8434</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="30" t="s">
         <v>225</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>109.1172</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="30" t="s">
         <v>226</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>109.2685</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="30" t="s">
         <v>227</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>109.2717</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="30" t="s">
         <v>228</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>108.5817</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="30" t="s">
         <v>229</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>108.4034</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="30" t="s">
         <v>230</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>108.32989999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="30" t="s">
         <v>231</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>108.3412</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
         <v>232</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>108.1969</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
         <v>233</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>108.50020000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
         <v>234</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>108.5411</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
         <v>235</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>108.2533</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
         <v>236</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>108.1583</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>237</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>108.1427</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="2" t="s">
         <v>238</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>108.2376</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
         <v>239</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>108.36960000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="2" t="s">
         <v>240</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>107.7188</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
         <v>241</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>107.6467</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
         <v>242</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>107.3535</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
         <v>243</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>107.5759</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
         <v>244</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>106.8656</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
         <v>245</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>106.8861</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
         <v>246</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>106.8566</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
         <v>247</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>106.5335</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
         <v>248</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>106.49939999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
         <v>249</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>106.2132</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
         <v>250</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>106.21120000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
         <v>251</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>106.0001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
         <v>252</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>105.98399999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
         <v>253</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>105.986</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
         <v>254</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>105.9337</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
         <v>255</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>105.8091</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
         <v>256</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>105.6741</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
         <v>257</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>105.6541</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
         <v>258</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>105.6579</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
         <v>259</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>105.62179999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
         <v>260</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>105.7285</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
         <v>261</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>105.5444</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
         <v>262</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>105.48650000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
         <v>263</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>105.4251</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
         <v>264</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>105.49930000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
         <v>265</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>105.4402</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
         <v>266</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>105.3541</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
         <v>267</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>105.3237</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
         <v>268</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>105.2586</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
         <v>269</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>105.15179999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
         <v>270</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>105.0792</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
         <v>271</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>105.11539999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
         <v>272</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>105.099</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
         <v>273</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>105.19119999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
         <v>274</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>105.1964</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
         <v>275</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>105.3433</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="2" t="s">
         <v>276</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>105.4178</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
         <v>277</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>105.547</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
         <v>278</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>105.5671</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
         <v>279</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>105.7111</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="2" t="s">
         <v>280</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>105.58029999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
         <v>281</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>105.5763</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
         <v>282</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>105.5874</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
         <v>283</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>105.5107</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
         <v>284</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>105.3665</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
         <v>285</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>104.82259999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
         <v>286</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>104.97110000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
         <v>287</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>104.97110000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
         <v>288</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>106.1276</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
         <v>289</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>106.35169999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
         <v>290</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>106.20359999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
         <v>291</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>106.13160000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
         <v>292</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>106.3188</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
         <v>293</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>106.3272</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
         <v>294</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>106.3272</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
         <v>295</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>106.1994</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
         <v>296</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>106.2283</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
         <v>297</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>106.11360000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
         <v>298</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>106.06529999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
         <v>299</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>105.95610000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
         <v>300</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>105.7933</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
         <v>301</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>105.7933</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
         <v>302</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>105.8083</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
         <v>303</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>105.76390000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
         <v>304</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>105.6917</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
         <v>305</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>105.601</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
         <v>306</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>105.4418</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
         <v>307</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>105.4418</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
         <v>308</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>105.36969999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
         <v>309</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>105.44540000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
         <v>310</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>105.55840000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
         <v>311</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>105.6344</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
         <v>312</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>105.60290000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
         <v>313</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>105.4192</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
         <v>314</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>105.58799999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
         <v>315</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>105.5527</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
         <v>316</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>105.46169999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
         <v>317</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>105.3557</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
         <v>318</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>105.87869999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
         <v>319</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>105.5265</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
         <v>320</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>105.2868</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
         <v>321</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>105.6978</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
         <v>322</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>106.0401</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
         <v>323</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>105.9316</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
         <v>324</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>106.0253</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
         <v>325</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>106.215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
         <v>326</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>106.054</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
         <v>327</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>105.8664</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
         <v>328</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>105.96210000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
         <v>329</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>105.6849</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
         <v>330</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>105.7598</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
         <v>331</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>105.6867</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
         <v>332</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>105.66240000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
         <v>333</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>105.6193</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
         <v>334</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>105.5275</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
         <v>335</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>105.19289999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
         <v>336</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>105.1014</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
         <v>337</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>105.0654</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
         <v>338</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>105.1268</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
         <v>339</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>105.0723</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
         <v>340</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>105.0179</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
         <v>341</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>104.9447</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
         <v>342</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>104.8558</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
         <v>343</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>104.78270000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
         <v>344</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>104.8027</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
         <v>345</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>104.6178</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
         <v>346</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>105.0715</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
         <v>347</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>105.0528</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
         <v>348</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>105.0543</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
         <v>349</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>104.9622</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
         <v>350</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>104.7205</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
         <v>351</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>104.7448</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
         <v>352</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>104.78360000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
         <v>353</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>104.7461</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
         <v>354</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>104.7475</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
         <v>355</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>104.54259999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
         <v>356</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>104.70229999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
         <v>357</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>104.6983</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
         <v>358</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>104.5873</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
         <v>359</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>104.5151</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
         <v>360</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>104.4777</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
         <v>361</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>104.46429999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
         <v>362</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>104.408</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
         <v>363</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>104.39190000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
         <v>364</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>104.3931</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
         <v>365</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>104.417</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
         <v>366</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>104.3433</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
         <v>367</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>104.2321</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
         <v>368</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
         <v>368</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
         <v>368</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
         <v>368</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
         <v>368</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
         <v>368</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>104.1211</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
         <v>369</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>104.1258</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
         <v>370</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>104.07080000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
         <v>371</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>103.90479999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
         <v>372</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>103.9473</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
         <v>373</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>103.94670000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
         <v>374</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>103.9331</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
         <v>375</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>103.8916</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
         <v>376</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>103.9126</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
         <v>377</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>103.9126</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
         <v>378</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>103.8763</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
         <v>379</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>103.8796</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
         <v>380</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>104.0309</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
         <v>381</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>104.1073</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
         <v>382</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>104.056</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
         <v>383</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>103.8874</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
         <v>384</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>103.8874</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
         <v>385</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>104.1144</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
         <v>386</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>104.1407</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
         <v>387</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>103.90949999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
         <v>388</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>104.3192</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
         <v>389</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>104.5444</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
         <v>390</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>104.7936</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
         <v>391</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>104.366</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
         <v>392</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>104.1951</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
         <v>393</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>104.1204</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
         <v>394</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>104.02679999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
         <v>395</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>103.99</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
         <v>396</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>103.9255</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
         <v>397</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>103.67270000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
         <v>398</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>103.6927</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
         <v>399</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>103.7316</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
         <v>400</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>103.54349999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
         <v>401</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>103.5645</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
         <v>402</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>103.455</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
         <v>403</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>103.3784</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
         <v>404</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>103.4759</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
         <v>405</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>103.44499999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
         <v>406</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>103.3663</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
         <v>407</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>103.3105</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
         <v>408</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>103.3115</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>409</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>103.4234</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>410</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>103.41</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>411</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>103.411</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>412</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>103.4499</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
         <v>413</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>103.2432</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>414</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>103.09439999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>415</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>103.00069999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>416</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>103.28579999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>417</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>103.64830000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>418</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>103.8061</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>419</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>103.9777</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>420</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>103.883</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>421</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>103.33920000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>422</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>103.2743</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>423</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>103.16119999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>424</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>103.279</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
         <v>425</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>103.06570000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
         <v>426</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>103.05159999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>427</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>102.7487</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
         <v>428</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>102.7116</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>429</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>102.6002</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>430</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>102.5253</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
         <v>431</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>102.4881</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
         <v>432</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>102.43210000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
         <v>433</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>102.3835</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>434</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>102.3455</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>435</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>102.19459999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>436</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>102.5368</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
         <v>437</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>102.3862</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
         <v>438</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>102.3875</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>439</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>102.4072</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
         <v>440</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>102.3129</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
         <v>441</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>101.8398</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
         <v>442</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>101.8403</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
         <v>443</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>101.7811</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
         <v>444</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>101.80459999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
         <v>445</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>101.78619999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
         <v>446</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>101.86239999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
         <v>447</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>101.6926</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
         <v>448</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>101.69410000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
         <v>449</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>101.6567</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
         <v>450</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>101.48699999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
         <v>451</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>101.4119</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
         <v>452</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>101.5635</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
         <v>453</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>101.6596</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
         <v>454</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>101.69329999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
         <v>455</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>101.75539999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
         <v>456</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>101.68380000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
         <v>457</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>101.7184</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
         <v>458</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>101.5984</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
         <v>459</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>101.6965</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
         <v>460</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>101.64490000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
         <v>461</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>101.2312</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
         <v>462</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>101.06570000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
         <v>463</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>100.92959999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
         <v>464</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>100.9601</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
         <v>465</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>100.9494</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
         <v>466</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>100.9115</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
         <v>467</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>100.8977</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
         <v>468</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>100.8977</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
         <v>469</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>100.64830000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
         <v>470</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>100.78060000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
         <v>471</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>100.6634</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
         <v>472</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>100.6491</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
         <v>473</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>100.6153</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
         <v>474</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>100.6306</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
         <v>475</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>100.61190000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
         <v>476</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>100.66889999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
         <v>477</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>100.6434</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
         <v>478</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>100.651</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
         <v>479</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>100.651</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
         <v>480</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>100.6515</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
         <v>481</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>100.6515</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
         <v>482</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>100.6713</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
         <v>483</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>100.7286</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
         <v>484</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>100.72880000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
         <v>485</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>100.76390000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
         <v>486</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>100.7491</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
         <v>487</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>100.75660000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
         <v>488</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>100.78749999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
         <v>489</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>100.788</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
         <v>490</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>100.827</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
         <v>491</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>100.80410000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
         <v>492</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>100.84690000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
         <v>493</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>100.809</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
         <v>494</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>100.88630000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
         <v>495</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>100.8329</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
         <v>496</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>100.776</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
         <v>497</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>100.7835</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
         <v>498</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>100.6767</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
         <v>499</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>100.65649999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
         <v>500</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>100.7159</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
         <v>501</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>100.5059</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
         <v>502</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>100.4495</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
         <v>503</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>100.83320000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
         <v>504</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>100.6412</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
         <v>505</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>100.7938</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
         <v>506</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>100.7569</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
         <v>507</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>100.7187</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
         <v>508</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>100.6045</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
         <v>509</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>100.6045</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
         <v>510</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>100.7585</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
         <v>511</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>100.83580000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
         <v>512</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>100.6463</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
         <v>513</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>100.60769999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
         <v>514</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>100.6156</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
         <v>515</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>100.6468</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
         <v>516</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>100.7822</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
         <v>517</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>100.9186</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
         <v>518</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>100.82210000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2">
       <c r="A415" s="1" t="s">
         <v>519</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>100.8608</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
         <v>520</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>100.8421</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
         <v>521</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>100.95869999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
         <v>522</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>100.9986</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
         <v>523</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>100.999</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
         <v>524</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>100.8827</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
         <v>525</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>100.7278</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
         <v>526</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>100.7629</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
         <v>527</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>100.78749999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
         <v>528</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>100.9628</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
         <v>529</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>100.91249999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
         <v>530</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>101.19759999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
         <v>531</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>101.3789</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
         <v>532</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>101.3558</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
         <v>533</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>101.2388</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2">
       <c r="A430" s="1" t="s">
         <v>534</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>101.3214</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2">
       <c r="A431" s="1" t="s">
         <v>535</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>101.4316</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2">
       <c r="A432" s="1" t="s">
         <v>536</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>101.5707</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2">
       <c r="A433" s="1" t="s">
         <v>537</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>101.53579999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2">
       <c r="A434" s="1" t="s">
         <v>538</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>101.57170000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2">
       <c r="A435" s="1" t="s">
         <v>539</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>101.6353</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2">
       <c r="A436" s="1" t="s">
         <v>540</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>101.4783</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2">
       <c r="A437" s="1" t="s">
         <v>541</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>101.4606</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2">
       <c r="A438" s="1" t="s">
         <v>542</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>101.4606</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2">
       <c r="A439" s="1" t="s">
         <v>543</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>101.4414</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
         <v>544</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>101.14700000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2">
       <c r="A441" s="1" t="s">
         <v>545</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>101.0493</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
         <v>546</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>100.99160000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2">
       <c r="A443" s="1" t="s">
         <v>547</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>101.0116</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2">
       <c r="A444" s="1" t="s">
         <v>548</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>101.008</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2">
       <c r="A445" s="1" t="s">
         <v>549</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>100.9273</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2">
       <c r="A446" s="1" t="s">
         <v>550</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>100.88809999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2">
       <c r="A447" s="1" t="s">
         <v>551</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>100.81780000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2">
       <c r="A448" s="1" t="s">
         <v>552</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>100.7593</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
         <v>553</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>100.7165</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2">
       <c r="A450" s="1" t="s">
         <v>554</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>100.8777</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2">
       <c r="A451" s="1" t="s">
         <v>555</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>100.7813</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2">
       <c r="A452" s="1" t="s">
         <v>556</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>100.8201</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2">
       <c r="A453" s="1" t="s">
         <v>557</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>100.6289</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
         <v>558</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>101.0334</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
         <v>559</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>101.018</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2">
       <c r="A456" s="1" t="s">
         <v>560</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>100.9166</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2">
       <c r="A457" s="1" t="s">
         <v>561</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>100.90519999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2">
       <c r="A458" s="1" t="s">
         <v>562</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>100.8976</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
         <v>563</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>100.8473</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
         <v>564</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>100.8236</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
         <v>565</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>100.8237</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2">
       <c r="A462" s="1" t="s">
         <v>566</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>100.745</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2">
       <c r="A463" s="1" t="s">
         <v>567</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2">
       <c r="A464" s="1" t="s">
         <v>568</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>100.6861</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2">
       <c r="A465" s="1" t="s">
         <v>569</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>100.6862</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2">
       <c r="A466" s="1" t="s">
         <v>570</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>100.6863</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2">
       <c r="A467" s="1" t="s">
         <v>571</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>100.6666</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2">
       <c r="A468" s="1" t="s">
         <v>572</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>100.4696</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2">
       <c r="A469" s="1" t="s">
         <v>573</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>100.4696</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2">
       <c r="A470" s="1" t="s">
         <v>574</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>100.39</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2">
       <c r="A471" s="1" t="s">
         <v>575</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>100.39</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2">
       <c r="A472" s="1" t="s">
         <v>576</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>100.48739999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2">
       <c r="A473" s="1" t="s">
         <v>577</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>100.29219999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2">
       <c r="A474" s="1" t="s">
         <v>578</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>100.2882</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2">
       <c r="A475" s="1" t="s">
         <v>579</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>100.23309999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2">
       <c r="A476" s="1" t="s">
         <v>580</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>100.33159999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2">
       <c r="A477" s="1" t="s">
         <v>581</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>100.8468</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2">
       <c r="A478" s="1" t="s">
         <v>582</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>100.7792</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2">
       <c r="A479" s="1" t="s">
         <v>583</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>100.7794</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
         <v>584</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>100.5295</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2">
       <c r="A481" s="1" t="s">
         <v>585</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>100.4503</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
         <v>586</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>100.4401</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
         <v>587</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>100.3514</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2">
       <c r="A484" s="1" t="s">
         <v>588</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>100.39100000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
         <v>589</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>100.33159999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
         <v>590</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>100.39100000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2">
       <c r="A487" s="1" t="s">
         <v>591</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>100.4109</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
         <v>592</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>100.4308</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
         <v>593</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>100.3514</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2">
       <c r="A490" s="1" t="s">
         <v>594</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>100.2919</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
         <v>595</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>100.34990000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2">
       <c r="A492" s="1" t="s">
         <v>596</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>100.4011</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2">
       <c r="A493" s="1" t="s">
         <v>597</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>100.4708</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2">
       <c r="A494" s="1" t="s">
         <v>598</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>100.4907</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2">
       <c r="A495" s="1" t="s">
         <v>599</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>100.3117</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2">
       <c r="A496" s="1" t="s">
         <v>600</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>100.3117</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2">
       <c r="A497" s="1" t="s">
         <v>601</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>100.3038</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2">
       <c r="A498" s="1" t="s">
         <v>602</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>100.29179999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
         <v>603</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>100.3516</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
         <v>604</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>100.3317</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2">
       <c r="A501" s="1" t="s">
         <v>605</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>100.3516</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2">
       <c r="A502" s="1" t="s">
         <v>606</v>
       </c>
@@ -8250,31 +8250,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6BB14F-7400-4C6E-9555-09915483C279}">
   <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="1"/>
-    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="41" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.125" style="1"/>
-    <col min="16" max="16" width="12.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="1"/>
-    <col min="18" max="18" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1">
       <c r="B1" s="61" t="s">
         <v>612</v>
       </c>
@@ -8287,10 +8287,10 @@
       </c>
       <c r="I1" s="56"/>
     </row>
-    <row r="2" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="15.75" thickTop="1">
       <c r="I2" s="56"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
       <c r="B3" s="61" t="s">
         <v>613</v>
       </c>
@@ -8302,7 +8302,7 @@
       <c r="H3" s="49"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="57" t="s">
         <v>109</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="H4" s="63"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" s="57" t="s">
         <v>107</v>
       </c>
@@ -8329,12 +8329,12 @@
       <c r="F5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="73">
         <v>45888</v>
       </c>
-      <c r="H5" s="62"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" s="57" t="s">
         <v>106</v>
       </c>
@@ -8350,14 +8350,14 @@
       </c>
       <c r="H6" s="54" t="str">
         <f>_xll.McpGetValue_Svr(G6,"ShortName")</f>
-        <v>22国开15</v>
+        <v>##TypeError: batch_get_data() takes 3 positional arguments but 4 were given</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>_xll.McpFixedRateBond_Svr(G6,G5)</f>
         <v>McpFixedRateBond@0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" s="57" t="s">
         <v>621</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="I7" s="54"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" s="57" t="s">
         <v>104</v>
       </c>
@@ -8395,10 +8395,14 @@
         <f>_xll.FrbCleanPriceFromYieldCHN($I$6,H7)</f>
         <v>107.00443794563417</v>
       </c>
+      <c r="I8" s="54" t="str">
+        <f>H6</f>
+        <v>##TypeError: batch_get_data() takes 3 positional arguments but 4 were given</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B9" s="57" t="s">
         <v>103</v>
       </c>
@@ -8420,7 +8424,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="57" t="s">
         <v>626</v>
       </c>
@@ -8436,7 +8440,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B11" s="57" t="s">
         <v>101</v>
       </c>
@@ -8447,13 +8451,13 @@
       <c r="F11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="78"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B12" s="57" t="s">
         <v>100</v>
       </c>
@@ -8464,10 +8468,10 @@
       <c r="F12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="1" t="str">
         <f>'HisVols (bond)'!E14</f>
         <v>MHistVols@0</v>
@@ -8475,7 +8479,7 @@
       <c r="K12" s="47"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="57" t="s">
         <v>98</v>
       </c>
@@ -8486,14 +8490,14 @@
       <c r="F13" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="46"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="57" t="s">
         <v>96</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>107.68610003502516</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B15" s="57" t="s">
         <v>95</v>
       </c>
@@ -8523,13 +8527,13 @@
       <c r="F15" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="64">
         <f>_xll.CalendarAddPeriod(C14,G5,G16,"ModifiedFollowing")</f>
         <v>45980</v>
       </c>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="B16" s="57" t="s">
         <v>93</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>45982</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
@@ -8557,12 +8561,12 @@
       <c r="F17" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="76">
         <v>1000000</v>
       </c>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B18" s="57" t="s">
         <v>89</v>
       </c>
@@ -8575,7 +8579,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B19" s="57" t="s">
         <v>622</v>
       </c>
@@ -8586,12 +8590,12 @@
       <c r="F19" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B20" s="57" t="s">
         <v>85</v>
       </c>
@@ -8601,13 +8605,13 @@
       <c r="F20" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="76"/>
+      <c r="H20" s="69"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B21" s="57" t="s">
         <v>83</v>
       </c>
@@ -8617,13 +8621,13 @@
       <c r="F21" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="74">
         <f>_xll.HvsGetVol(I12,BondOption!C5)</f>
         <v>1.842907083035868E-2</v>
       </c>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickTop="1">
       <c r="F22" s="35" t="s">
         <v>103</v>
       </c>
@@ -8637,17 +8641,17 @@
       </c>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="F23" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="70">
         <f>_xll.FrbCouponRate(I6)</f>
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1">
       <c r="C24" s="59" t="str">
         <f>_xll.McpVanillaOption(B4:C21)</f>
         <v>McpVanillaOption@0</v>
@@ -8665,14 +8669,14 @@
       </c>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="15.75" thickTop="1">
       <c r="F25" s="38" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15.75" thickBot="1">
       <c r="B26" s="61" t="s">
         <v>614</v>
       </c>
@@ -8680,13 +8684,13 @@
       <c r="F26" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="73">
         <f>_xll.CalendarValueDate($C$14,G5)</f>
         <v>45890</v>
       </c>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B27" s="57" t="s">
         <v>81</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>-3959.124990432018</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B28" s="57" t="s">
         <v>607</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>-39.591249904320179</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B29" s="57" t="s">
         <v>80</v>
       </c>
@@ -8745,13 +8749,13 @@
       <c r="F29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="72">
         <f>D28</f>
         <v>0.49807788293462701</v>
       </c>
-      <c r="H29" s="79"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="72"/>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B30" s="57" t="s">
         <v>77</v>
       </c>
@@ -8762,13 +8766,13 @@
       <c r="F30" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="62">
         <f>C28</f>
         <v>4980.77882934627</v>
       </c>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="62"/>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B31" s="57" t="s">
         <v>75</v>
       </c>
@@ -8779,13 +8783,13 @@
       <c r="F31" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="62">
         <f>C30</f>
         <v>459185.69843421795</v>
       </c>
       <c r="H31" s="63"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B32" s="57" t="s">
         <v>76</v>
       </c>
@@ -8796,13 +8800,13 @@
       <c r="F32" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="62">
         <f>C31</f>
         <v>2148.288854665414</v>
       </c>
       <c r="H32" s="63"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33" s="57" t="s">
         <v>74</v>
       </c>
@@ -8811,7 +8815,7 @@
         <v>1346.7864521836595</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B34" s="57" t="s">
         <v>73</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>9.9391689019352807</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B35" s="57" t="s">
         <v>72</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>-2.4947732924221322</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B36" s="57" t="s">
         <v>71</v>
       </c>
@@ -8838,7 +8842,7 @@
         <v>3974.649981956813</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B37" s="57" t="s">
         <v>70</v>
       </c>
@@ -8847,9 +8851,17 @@
         <v>3958.7881649423002</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:3" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G19:H19"/>
@@ -8858,14 +8870,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="5">
@@ -9028,7 +9032,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C52EACB-F32B-418A-BAE0-0ACDE4D1ED64}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE00912-9397-42A1-9118-41B8E334B2B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:pyxll:metadata"/>
   </ds:schemaRefs>
